--- a/Clustering/Lube Oil System/DBSCAN/dbscan_lube_oil_g11/items_mhi_ansaldo.xlsx
+++ b/Clustering/Lube Oil System/DBSCAN/dbscan_lube_oil_g11/items_mhi_ansaldo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RNN_projects\Clustering\Lube Oil System\DBSCAN\dbscan_lube_oil_g11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MHI data driven pdm project\Clustering\Lube Oil System\DBSCAN\dbscan_lube_oil_g11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF30DC2-AF67-4200-981F-6FC62D893EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE34A3B-495E-409D-AA06-8C0EAEE46B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="353">
   <si>
     <t>لاک شیت داخلی</t>
   </si>
@@ -1080,6 +1080,27 @@
   </si>
   <si>
     <t>flow</t>
+  </si>
+  <si>
+    <t>AssetID_8341</t>
+  </si>
+  <si>
+    <t>AssetID_8342</t>
+  </si>
+  <si>
+    <t>AssetID_8343</t>
+  </si>
+  <si>
+    <t>AssetID_8344</t>
+  </si>
+  <si>
+    <t>AssetID_8346</t>
+  </si>
+  <si>
+    <t>AssetID_9286</t>
+  </si>
+  <si>
+    <t>AssetID_9287</t>
   </si>
 </sst>
 </file>
@@ -1849,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5396,6 +5417,62 @@
       </c>
       <c r="G166" s="2" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="187" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E187" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F187" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="188" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E188" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F188" s="49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="189" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E189" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F189" s="49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="190" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E190" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F190" s="49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="191" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E191" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F191" s="49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="192" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E192" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F192" s="49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="193" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E193" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F193" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
